--- a/00-data/a-raw/TABLE 2, U PB AND HF DATA, FINAL.xlsx
+++ b/00-data/a-raw/TABLE 2, U PB AND HF DATA, FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianwackett/Library/CloudStorage/Dropbox/Mac/Documents/GitHub/M006-wackett-SBB-geochem/00-data/a-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C9403-9FE9-A944-A06E-B0EFCEA45C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65B2813-8575-6047-B930-7A780CAFF147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
